--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC26BE19-AB08-4BAB-B40B-7FBCB586662D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D4D6A-3DE3-4BE8-A99E-D01ED77AC71F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -279,6 +279,46 @@
   </si>
   <si>
     <t>报销款1421元给杨总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400现金21微信已转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1228-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付CHSI1812033舱单50元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1227-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮杨总报销的1224出差费用给杨总了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿到发票后报销舱单费50元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -388,6 +428,18 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -427,18 +479,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -453,14 +493,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
-  <sortState ref="A2:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
+  <sortState ref="A2:D10">
     <sortCondition ref="A6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9C7264A0-1FF9-4E56-A707-DF36356AC7CB}" name="Date" dataDxfId="1" dataCellStyle="常规 4"/>
-    <tableColumn id="2" xr3:uid="{EC1AE1A8-CAF7-4D37-9190-315B4698E7EE}" name="Todo" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9C7264A0-1FF9-4E56-A707-DF36356AC7CB}" name="Date" dataDxfId="5" dataCellStyle="常规 4"/>
+    <tableColumn id="2" xr3:uid="{EC1AE1A8-CAF7-4D37-9190-315B4698E7EE}" name="Todo" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{9CFDAD1A-9CCB-4F17-92E3-28636C274B5A}" name="Result"/>
     <tableColumn id="4" xr3:uid="{E3980422-5D14-4B82-B15C-CE55AEA6051D}" name="Status"/>
   </tableColumns>
@@ -472,10 +512,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7ADA72FC-D99A-451F-9209-E518A333E3E8}" name="表2" displayName="表2" ref="A1:H25" totalsRowCount="1">
   <autoFilter ref="A1:H24" xr:uid="{25EE9043-CAF3-4514-8193-9171B868A0A6}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{25CEFA09-D559-4F78-81F0-93AC63241EEB}" name="列1" totalsRowLabel="汇总" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{25CEFA09-D559-4F78-81F0-93AC63241EEB}" name="列1" totalsRowLabel="汇总" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{EFE1DAB6-2EC4-4EC9-8E76-E2408092B521}" name="日期时间"/>
-    <tableColumn id="6" xr3:uid="{0972F8FF-FBB0-4A94-BF86-D582C492E079}" name="进出账" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{08A88167-D94A-4E46-B58C-A4E78494BA3A}" name="金额" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{0972F8FF-FBB0-4A94-BF86-D582C492E079}" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{08A88167-D94A-4E46-B58C-A4E78494BA3A}" name="金额" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{7FA584A2-B7D9-434A-BFE3-A16CCBECCE7E}" name="对象"/>
     <tableColumn id="4" xr3:uid="{CFCE060D-C83A-4A6D-96EE-E0ABF070A671}" name="备注"/>
     <tableColumn id="5" xr3:uid="{21F8AC4D-4AF0-4D5E-B4CE-1D973B2CD9A5}" name="动作"/>
@@ -759,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744565C-40B5-4F70-8FBE-A324FCB9D218}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -802,13 +842,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>43462.333333333336</v>
+        <v>43462</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -816,67 +856,81 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>43462.368055555555</v>
+        <v>43462.333333333336</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <v>43462.375</v>
+        <v>43462.368055555555</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
-        <v>43462.434027777781</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>43462.375</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>43462.583333333336</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>43462.434027777781</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <v>43462</v>
+        <v>43462.4375</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>43462.4375</v>
+        <v>43462.583333333336</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>43462.583333333336</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -892,14 +946,15 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
@@ -1097,6 +1152,9 @@
       <c r="G8" t="s">
         <v>19</v>
       </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1166,18 +1224,54 @@
       <c r="G11" t="s">
         <v>26</v>
       </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43462.409722222219</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-50</v>
+      </c>
       <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43462.408333333333</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-1421</v>
+      </c>
       <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
@@ -1251,18 +1345,19 @@
       </c>
       <c r="C25" s="2">
         <f>SUBTOTAL(109,表2[进出账])</f>
-        <v>1421</v>
+        <v>-50</v>
       </c>
       <c r="H25">
         <f>SUBTOTAL(103,表2[状态])</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D4D6A-3DE3-4BE8-A99E-D01ED77AC71F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7575B56-28CF-45D1-BD70-B6EE4B4E2D07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -230,22 +235,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>束姐说1228早上才装好，还没看到确认照片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日陆 CHSI1812033 换单费已出，可录系统，申请付款，确认电放状态。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>付款申请已交，电放状态还是否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>找陈姐报销</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,10 +267,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已去问</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>报销款1421元给杨总</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -319,6 +308,66 @@
   </si>
   <si>
     <t>拿到发票后报销舱单费50元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224056 找青岛堆场要这个罐子清洗报价给周菁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1228杨总未签字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已换单，送到报关行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天日报已经进了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上发确认照片已经走了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记跟杨总说了，明天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转明天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王紫晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanks.xlsm CtrlL好像不好用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作流程记录一览表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2291 4014两个罐子今天上船</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分罐子装货和上船时间有准确数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几票进口完了整理一下进口流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天聊天记录和邮件还没理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -493,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:D10" totalsRowShown="0">
-  <autoFilter ref="A1:D10" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:D18" totalsRowShown="0">
+  <autoFilter ref="A1:D18" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
   <sortState ref="A2:D10">
     <sortCondition ref="A6"/>
   </sortState>
@@ -509,13 +558,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7ADA72FC-D99A-451F-9209-E518A333E3E8}" name="表2" displayName="表2" ref="A1:H25" totalsRowCount="1">
-  <autoFilter ref="A1:H24" xr:uid="{25EE9043-CAF3-4514-8193-9171B868A0A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7ADA72FC-D99A-451F-9209-E518A333E3E8}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
+  <autoFilter ref="A1:H29" xr:uid="{25EE9043-CAF3-4514-8193-9171B868A0A6}"/>
   <tableColumns count="8">
     <tableColumn id="8" xr3:uid="{25CEFA09-D559-4F78-81F0-93AC63241EEB}" name="列1" totalsRowLabel="汇总" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{EFE1DAB6-2EC4-4EC9-8E76-E2408092B521}" name="日期时间"/>
-    <tableColumn id="6" xr3:uid="{0972F8FF-FBB0-4A94-BF86-D582C492E079}" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{08A88167-D94A-4E46-B58C-A4E78494BA3A}" name="金额" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0972F8FF-FBB0-4A94-BF86-D582C492E079}" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{08A88167-D94A-4E46-B58C-A4E78494BA3A}" name="金额" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{7FA584A2-B7D9-434A-BFE3-A16CCBECCE7E}" name="对象"/>
     <tableColumn id="4" xr3:uid="{CFCE060D-C83A-4A6D-96EE-E0ABF070A671}" name="备注"/>
     <tableColumn id="5" xr3:uid="{21F8AC4D-4AF0-4D5E-B4CE-1D973B2CD9A5}" name="动作"/>
@@ -799,10 +848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744565C-40B5-4F70-8FBE-A324FCB9D218}">
-  <dimension ref="A1:D10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -834,10 +884,10 @@
         <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -845,13 +895,13 @@
         <v>43462</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -859,13 +909,13 @@
         <v>43462.333333333336</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -873,13 +923,13 @@
         <v>43462.368055555555</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -887,16 +937,22 @@
         <v>43462.375</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6"/>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>43462.434027777781</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -904,13 +960,13 @@
         <v>43462.4375</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -918,19 +974,106 @@
         <v>43462.583333333336</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>43462.583333333336</v>
+        <v>43463</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>43463</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>43463</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>43463</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>43463</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>43463</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>43463</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>43467</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>43463</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -943,10 +1086,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA2C575-7C37-4ADA-9032-BFC4467E478D}">
-  <dimension ref="A1:H25"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1153,7 +1297,7 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1225,12 +1369,12 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1">
         <v>43462.409722222219</v>
@@ -1240,18 +1384,18 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1">
         <v>43462.408333333333</v>
@@ -1264,20 +1408,35 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43462.583333333336</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1340,14 +1499,39 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C30" s="2">
         <f>SUBTOTAL(109,表2[进出账])</f>
         <v>-50</v>
       </c>
-      <c r="H25">
+      <c r="H30">
         <f>SUBTOTAL(103,表2[状态])</f>
         <v>11</v>
       </c>
@@ -1364,10 +1548,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7575B56-28CF-45D1-BD70-B6EE4B4E2D07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DF1959-C29D-474A-AC78-FD149F32166F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -331,14 +331,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>忘记跟杨总说了，明天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转明天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>王紫晶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,6 +360,22 @@
   </si>
   <si>
     <t>昨天聊天记录和邮件还没理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补上之前的装货记录，实现本期使用自动计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记跟杨总说了，转明天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28日晚完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +480,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{44E64FB6-3B09-4011-B731-6575778A29BE}"/>
   </cellStyles>
   <dxfs count="6">
@@ -542,10 +550,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
-  <sortState ref="A2:D10">
-    <sortCondition ref="A6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:D19" totalsRowShown="0">
+  <autoFilter ref="A1:D19" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
+  <sortState ref="A2:D19">
+    <sortCondition ref="A11"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C7264A0-1FF9-4E56-A707-DF36356AC7CB}" name="Date" dataDxfId="5" dataCellStyle="常规 4"/>
@@ -849,10 +857,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744565C-40B5-4F70-8FBE-A324FCB9D218}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -977,10 +985,10 @@
         <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1020,17 +1028,21 @@
         <v>43463</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43463</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1040,7 +1052,7 @@
         <v>43463</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1050,17 +1062,21 @@
         <v>43463</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>43467</v>
+        <v>43463</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1070,10 +1086,20 @@
         <v>43463</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>43467</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1089,8 +1115,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1429,13 +1455,13 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DF1959-C29D-474A-AC78-FD149F32166F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336B2F67-8B13-4FDC-B2B5-6EBAF9D24382}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -315,10 +315,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1228杨总未签字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>已换单，送到报关行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -376,6 +372,26 @@
   </si>
   <si>
     <t>28日晚完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找朱薇薇报SEAU1224040洗、气、露费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已去要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +496,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{44E64FB6-3B09-4011-B731-6575778A29BE}"/>
   </cellStyles>
   <dxfs count="6">
@@ -550,9 +566,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:D19" totalsRowShown="0">
-  <autoFilter ref="A1:D19" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
-  <sortState ref="A2:D19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:D20" totalsRowShown="0">
+  <autoFilter ref="A1:D20" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}">
+    <filterColumn colId="0">
+      <dynamicFilter type="today" val="43463" maxVal="43464"/>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A11:D18">
     <sortCondition ref="A11"/>
   </sortState>
   <tableColumns count="4">
@@ -857,10 +880,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744565C-40B5-4F70-8FBE-A324FCB9D218}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -884,7 +907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43462</v>
       </c>
@@ -892,13 +915,13 @@
         <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>43462</v>
       </c>
@@ -906,13 +929,13 @@
         <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43462.333333333336</v>
       </c>
@@ -920,13 +943,13 @@
         <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>43462.368055555555</v>
       </c>
@@ -940,7 +963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43462.375</v>
       </c>
@@ -952,7 +975,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>43462.434027777781</v>
       </c>
@@ -963,7 +986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43462.4375</v>
       </c>
@@ -977,7 +1000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>43462.583333333336</v>
       </c>
@@ -985,23 +1008,23 @@
         <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>43463</v>
+        <v>43463.541666666664</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
@@ -1010,10 +1033,12 @@
       <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43463</v>
       </c>
@@ -1021,20 +1046,22 @@
         <v>58</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>43463</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1042,33 +1069,35 @@
         <v>43463</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>43463</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43463</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1076,7 +1105,7 @@
         <v>43463</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1086,20 +1115,32 @@
         <v>43463</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>43467</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>43467</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1455,13 +1496,13 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336B2F67-8B13-4FDC-B2B5-6EBAF9D24382}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A318AC6-0DA6-4DEF-9880-B7AD9513B824}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
     <sheet name="流水账" sheetId="2" r:id="rId2"/>
     <sheet name="填报销单" sheetId="1" r:id="rId3"/>
+    <sheet name="通讯录" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="187">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -392,6 +393,367 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224056的清洗费已报给周菁，气相阀漏气需待洗完后确认维修方案和价格，先盯周菁确认清洗费。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224056 1月6号能清洗好？好了要维修方案和报价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找朱薇薇确认SEAU1224122年检进度，要SEAU1224040的维护费用，节前已要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯豪三个罐子29号已开船，没收到提单找何昆要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问束净：柯豪三个罐子预计2019-01-04 10:00 到上海港，申报材料是不是放假就要发给申报行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHSI1812036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅到公司来给日陆的提货单复印件和发票，录系统填报销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHSI1812033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上找束姐确认报关资料，发报关资料给黄燕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSCO 船公司统一申报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认罐子已进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一下有没有收到提单，没有微信问一问何昆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盯船靠，查到海关确报马上通知报关，通知车队排计划，发进罐申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放状态没问题，费用录系统，确定了换单费后填付费申请马上付费，准备提单复印件和电放保函，早上就给师傅去换单，要拉舱单，送黄燕，发留箱信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHSI1812035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看安科单子有什么要做的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>固话</t>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈荔仙</t>
+  </si>
+  <si>
+    <t>135-0165-1556</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-63831991</t>
+  </si>
+  <si>
+    <t>商圆</t>
+  </si>
+  <si>
+    <t>180-1972-4333</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨湖</t>
+  </si>
+  <si>
+    <t>189-1836-5750</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-63831886</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>束净</t>
+  </si>
+  <si>
+    <t>137-8897-9200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡明</t>
+  </si>
+  <si>
+    <t>王紫晶</t>
+  </si>
+  <si>
+    <t>021-36392681</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>印淳</t>
+  </si>
+  <si>
+    <t>136-0174-9559</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李园</t>
+  </si>
+  <si>
+    <t>136-5180-5434</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-63831955</t>
+  </si>
+  <si>
+    <t>袁钟华</t>
+  </si>
+  <si>
+    <t>139-1881-7500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-36392681</t>
+  </si>
+  <si>
+    <t>张玉敏</t>
+  </si>
+  <si>
+    <t>180-1930-9234</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-63831957</t>
+  </si>
+  <si>
+    <t>张冬生</t>
+  </si>
+  <si>
+    <t>156-1821-1607</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-36392680</t>
+  </si>
+  <si>
+    <t>朱薇薇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>151-9086-4663</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0513-81191116</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨阳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>132-8080-7390</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0532-82987650</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晓冬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>151-0542-6323</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0532-82987659</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李辰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周经理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>139-0193-7450</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周菁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>186-1687-1355</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-58355611/2/3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>何昆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-6227-8792</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨潇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>138-1880-5812</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-31769521</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚翻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-66076023</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>137-6465-8163</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合誉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本代理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ2853366123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2Forwarder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯豪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛代理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛堆场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通堆场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alex.yang@albatross-tanks.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>132-8080-3816</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GL年检</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181230-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿翔报关发票20181230节前已录入系统，等发票到了贴一起给陈姐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节前青岛走的两个罐子李辰给了报关单，问束姐什么时候要放行单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1228-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领报销款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日禄是哪家单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29日邮件已发来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理一下发件箱，梳理一下所有罐子最新状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +765,7 @@
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +792,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -470,13 +838,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -494,14 +865,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{439E888B-BB97-43E5-B87B-1DFBFF96D081}"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{44E64FB6-3B09-4011-B731-6575778A29BE}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
@@ -566,21 +972,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:E37" totalsRowShown="0">
+  <autoFilter ref="A1:E37" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}">
     <filterColumn colId="0">
-      <dynamicFilter type="today" val="43463" maxVal="43464"/>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1"/>
+      <dynamicFilter type="tomorrow" val="43465" maxVal="43466"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A11:D18">
-    <sortCondition ref="A11"/>
+  <sortState ref="A2:E37">
+    <sortCondition ref="A30"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9C7264A0-1FF9-4E56-A707-DF36356AC7CB}" name="Date" dataDxfId="5" dataCellStyle="常规 4"/>
-    <tableColumn id="2" xr3:uid="{EC1AE1A8-CAF7-4D37-9190-315B4698E7EE}" name="Todo" dataDxfId="4"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9C7264A0-1FF9-4E56-A707-DF36356AC7CB}" name="Date" dataDxfId="6" dataCellStyle="常规 4"/>
+    <tableColumn id="5" xr3:uid="{A61066D4-8BD4-48B3-9EBB-39E891B48F3A}" name="Id" dataDxfId="1" dataCellStyle="常规 4"/>
+    <tableColumn id="2" xr3:uid="{EC1AE1A8-CAF7-4D37-9190-315B4698E7EE}" name="Todo" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{9CFDAD1A-9CCB-4F17-92E3-28636C274B5A}" name="Result"/>
     <tableColumn id="4" xr3:uid="{E3980422-5D14-4B82-B15C-CE55AEA6051D}" name="Status"/>
   </tableColumns>
@@ -592,10 +996,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7ADA72FC-D99A-451F-9209-E518A333E3E8}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
   <autoFilter ref="A1:H29" xr:uid="{25EE9043-CAF3-4514-8193-9171B868A0A6}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{25CEFA09-D559-4F78-81F0-93AC63241EEB}" name="列1" totalsRowLabel="汇总" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{25CEFA09-D559-4F78-81F0-93AC63241EEB}" name="列1" totalsRowLabel="汇总" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{EFE1DAB6-2EC4-4EC9-8E76-E2408092B521}" name="日期时间"/>
-    <tableColumn id="6" xr3:uid="{0972F8FF-FBB0-4A94-BF86-D582C492E079}" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{08A88167-D94A-4E46-B58C-A4E78494BA3A}" name="金额" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{0972F8FF-FBB0-4A94-BF86-D582C492E079}" name="进出账" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{08A88167-D94A-4E46-B58C-A4E78494BA3A}" name="金额" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{7FA584A2-B7D9-434A-BFE3-A16CCBECCE7E}" name="对象"/>
     <tableColumn id="4" xr3:uid="{CFCE060D-C83A-4A6D-96EE-E0ABF070A671}" name="备注"/>
     <tableColumn id="5" xr3:uid="{21F8AC4D-4AF0-4D5E-B4CE-1D973B2CD9A5}" name="动作"/>
@@ -613,6 +1017,23 @@
     <tableColumn id="2" xr3:uid="{8F7CC066-1E03-4264-8913-D93614B61568}" name="报销摘要"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{442F291D-A78A-46CE-8F1D-6A065FF06281}" name="表1_5" displayName="表1_5" ref="A1:E22" totalsRowShown="0">
+  <autoFilter ref="A1:E22" xr:uid="{36C44F64-3D42-4060-B380-7455F8354EE7}"/>
+  <sortState ref="A2:E22">
+    <sortCondition ref="B15"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{159E6F62-1882-4032-A9B4-40C57BF0B98D}" name="姓名"/>
+    <tableColumn id="5" xr3:uid="{18F11215-CCBC-4E56-91CA-BD6305D9C137}" name="单位" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4A17DFC3-0122-401D-AB74-645CEEE089CC}" name="手机"/>
+    <tableColumn id="3" xr3:uid="{DA123AE3-CE07-494F-A6EA-04321390C057}" name="固话"/>
+    <tableColumn id="4" xr3:uid="{3F371BA9-27F5-46C8-918F-710FAA528F67}" name="列1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -880,267 +1301,519 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744565C-40B5-4F70-8FBE-A324FCB9D218}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="45.875" customWidth="1"/>
+    <col min="4" max="4" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43462</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>43462</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43462.333333333336</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>43462.368055555555</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43462.375</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>43462.434027777781</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43462.4375</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>43462.583333333336</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>43463.541666666664</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>43463</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>43463</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>88</v>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43463</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>43463</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43463</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>43463</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43463</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>43463</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>43463</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>43463.541666666664</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
+        <v>43464</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>43465</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>43466.333333333336</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>43467</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>43467</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>43467</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>43467</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>43467</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>43467</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>43467</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>43467.354166666664</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>43467.354861111111</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>43467.375</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>43467.416666666664</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>43467.666666666664</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>43469</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>43469.375</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>43472</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1157,7 +1830,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,6 +2132,9 @@
       <c r="G12" t="s">
         <v>69</v>
       </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -1504,12 +2180,33 @@
       <c r="G14" t="s">
         <v>76</v>
       </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43463</v>
+      </c>
+      <c r="C15" s="2">
+        <v>50</v>
+      </c>
       <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1596,11 +2293,11 @@
       </c>
       <c r="C30" s="2">
         <f>SUBTOTAL(109,表2[进出账])</f>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <f>SUBTOTAL(103,表2[状态])</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1694,4 +2391,316 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D26AAD6-F949-4369-8789-A402342228FA}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A318AC6-0DA6-4DEF-9880-B7AD9513B824}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAFD50B-88A0-4128-A974-6209DF2609CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="193">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -754,6 +754,31 @@
   </si>
   <si>
     <t>梳理一下发件箱，梳理一下所有罐子最新状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个罐子24号确认价格的，问问维修进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224122
+SEAU1224040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMU6109243</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号要装货，通知一下气密时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -872,6 +897,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,6 +909,18 @@
   <dxfs count="7">
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -908,18 +948,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -972,19 +1000,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:E37" totalsRowShown="0">
-  <autoFilter ref="A1:E37" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}">
-    <filterColumn colId="0">
-      <dynamicFilter type="tomorrow" val="43465" maxVal="43466"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:E37">
-    <sortCondition ref="A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:E39" totalsRowShown="0">
+  <autoFilter ref="A1:E39" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
+  <sortState ref="A2:E39">
+    <sortCondition ref="A26"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9C7264A0-1FF9-4E56-A707-DF36356AC7CB}" name="Date" dataDxfId="6" dataCellStyle="常规 4"/>
-    <tableColumn id="5" xr3:uid="{A61066D4-8BD4-48B3-9EBB-39E891B48F3A}" name="Id" dataDxfId="1" dataCellStyle="常规 4"/>
-    <tableColumn id="2" xr3:uid="{EC1AE1A8-CAF7-4D37-9190-315B4698E7EE}" name="Todo" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A61066D4-8BD4-48B3-9EBB-39E891B48F3A}" name="Id" dataDxfId="5" dataCellStyle="常规 4"/>
+    <tableColumn id="2" xr3:uid="{EC1AE1A8-CAF7-4D37-9190-315B4698E7EE}" name="Todo" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{9CFDAD1A-9CCB-4F17-92E3-28636C274B5A}" name="Result"/>
     <tableColumn id="4" xr3:uid="{E3980422-5D14-4B82-B15C-CE55AEA6051D}" name="Status"/>
   </tableColumns>
@@ -996,10 +1020,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7ADA72FC-D99A-451F-9209-E518A333E3E8}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
   <autoFilter ref="A1:H29" xr:uid="{25EE9043-CAF3-4514-8193-9171B868A0A6}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{25CEFA09-D559-4F78-81F0-93AC63241EEB}" name="列1" totalsRowLabel="汇总" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{25CEFA09-D559-4F78-81F0-93AC63241EEB}" name="列1" totalsRowLabel="汇总" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{EFE1DAB6-2EC4-4EC9-8E76-E2408092B521}" name="日期时间"/>
-    <tableColumn id="6" xr3:uid="{0972F8FF-FBB0-4A94-BF86-D582C492E079}" name="进出账" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{08A88167-D94A-4E46-B58C-A4E78494BA3A}" name="金额" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{0972F8FF-FBB0-4A94-BF86-D582C492E079}" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{08A88167-D94A-4E46-B58C-A4E78494BA3A}" name="金额" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{7FA584A2-B7D9-434A-BFE3-A16CCBECCE7E}" name="对象"/>
     <tableColumn id="4" xr3:uid="{CFCE060D-C83A-4A6D-96EE-E0ABF070A671}" name="备注"/>
     <tableColumn id="5" xr3:uid="{21F8AC4D-4AF0-4D5E-B4CE-1D973B2CD9A5}" name="动作"/>
@@ -1301,10 +1325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744565C-40B5-4F70-8FBE-A324FCB9D218}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1332,7 +1356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43462</v>
       </c>
@@ -1347,7 +1371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>43462</v>
       </c>
@@ -1362,7 +1386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43462.333333333336</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>43462.368055555555</v>
       </c>
@@ -1392,7 +1416,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43462.375</v>
       </c>
@@ -1407,7 +1431,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>43462.434027777781</v>
       </c>
@@ -1419,7 +1443,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43462.4375</v>
       </c>
@@ -1434,7 +1458,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>43462.583333333336</v>
       </c>
@@ -1449,7 +1473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>43463</v>
       </c>
@@ -1466,7 +1490,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>43463</v>
       </c>
@@ -1479,7 +1503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43463</v>
       </c>
@@ -1494,7 +1518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>43463</v>
       </c>
@@ -1503,9 +1527,11 @@
         <v>78</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43463</v>
       </c>
@@ -1518,7 +1544,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>43463</v>
       </c>
@@ -1533,7 +1559,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43463</v>
       </c>
@@ -1542,9 +1568,11 @@
         <v>82</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>43463</v>
       </c>
@@ -1555,7 +1583,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>43463.541666666664</v>
       </c>
@@ -1568,7 +1596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>43464</v>
       </c>
@@ -1579,7 +1607,9 @@
         <v>186</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
@@ -1598,7 +1628,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>43466.333333333336</v>
       </c>
@@ -1615,7 +1645,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>43467</v>
       </c>
@@ -1626,7 +1656,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>43467</v>
       </c>
@@ -1639,7 +1669,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>43467</v>
       </c>
@@ -1652,18 +1682,20 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>43467</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="12" t="s">
+        <v>189</v>
+      </c>
       <c r="C25" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>43467</v>
       </c>
@@ -1676,7 +1708,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>43467</v>
       </c>
@@ -1689,7 +1721,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>43467</v>
       </c>
@@ -1700,120 +1732,146 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>43467.354166666664</v>
+        <v>43467</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <v>43467.354861111111</v>
+        <v>43467</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>43467.375</v>
+        <v>43467.354166666664</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>43467.416666666664</v>
+        <v>43467.354861111111</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>43467.666666666664</v>
+        <v>43467.375</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>43469</v>
+        <v>43467.416666666664</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>43469.375</v>
+        <v>43467.666666666664</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <v>43472</v>
+        <v>43469</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="5"/>
+    <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>43469.375</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>43472</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1829,8 +1887,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAFD50B-88A0-4128-A974-6209DF2609CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="填报销单" sheetId="1" r:id="rId3"/>
     <sheet name="通讯录" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="200">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -762,6 +761,22 @@
   </si>
   <si>
     <t>这个罐子24号确认价格的，问问维修进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMU6109243</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号要装货，通知一下气密时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -770,27 +785,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SIMU6109243</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9号要装货，通知一下气密时间</t>
+    <t>SEAU1224040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格表做好给杨总</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4035今天能提箱了？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天气密做好了？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,6 +850,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -872,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -900,11 +933,17 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{439E888B-BB97-43E5-B87B-1DFBFF96D081}"/>
-    <cellStyle name="常规 4" xfId="1" xr:uid="{44E64FB6-3B09-4011-B731-6575778A29BE}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -936,8 +975,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
@@ -963,8 +1000,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
@@ -1000,62 +1035,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33636BBD-C961-4BB9-868C-4671D33B5AE0}" name="表1_4" displayName="表1_4" ref="A1:E39" totalsRowShown="0">
-  <autoFilter ref="A1:E39" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
-  <sortState ref="A2:E39">
-    <sortCondition ref="A26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E42" totalsRowShown="0">
+  <autoFilter ref="A1:E42">
+    <filterColumn colId="0">
+      <dynamicFilter type="today" val="43467" maxVal="43468"/>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A22:E42">
+    <sortCondition ref="A33"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9C7264A0-1FF9-4E56-A707-DF36356AC7CB}" name="Date" dataDxfId="6" dataCellStyle="常规 4"/>
-    <tableColumn id="5" xr3:uid="{A61066D4-8BD4-48B3-9EBB-39E891B48F3A}" name="Id" dataDxfId="5" dataCellStyle="常规 4"/>
-    <tableColumn id="2" xr3:uid="{EC1AE1A8-CAF7-4D37-9190-315B4698E7EE}" name="Todo" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9CFDAD1A-9CCB-4F17-92E3-28636C274B5A}" name="Result"/>
-    <tableColumn id="4" xr3:uid="{E3980422-5D14-4B82-B15C-CE55AEA6051D}" name="Status"/>
+    <tableColumn id="1" name="Date" dataDxfId="6" dataCellStyle="常规 4"/>
+    <tableColumn id="5" name="Id" dataDxfId="5" dataCellStyle="常规 4"/>
+    <tableColumn id="2" name="Todo" dataDxfId="4"/>
+    <tableColumn id="3" name="Result"/>
+    <tableColumn id="4" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7ADA72FC-D99A-451F-9209-E518A333E3E8}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
-  <autoFilter ref="A1:H29" xr:uid="{25EE9043-CAF3-4514-8193-9171B868A0A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
+  <autoFilter ref="A1:H29"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{25CEFA09-D559-4F78-81F0-93AC63241EEB}" name="列1" totalsRowLabel="汇总" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{EFE1DAB6-2EC4-4EC9-8E76-E2408092B521}" name="日期时间"/>
-    <tableColumn id="6" xr3:uid="{0972F8FF-FBB0-4A94-BF86-D582C492E079}" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{08A88167-D94A-4E46-B58C-A4E78494BA3A}" name="金额" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{7FA584A2-B7D9-434A-BFE3-A16CCBECCE7E}" name="对象"/>
-    <tableColumn id="4" xr3:uid="{CFCE060D-C83A-4A6D-96EE-E0ABF070A671}" name="备注"/>
-    <tableColumn id="5" xr3:uid="{21F8AC4D-4AF0-4D5E-B4CE-1D973B2CD9A5}" name="动作"/>
-    <tableColumn id="7" xr3:uid="{D990979F-E2E7-49E4-A996-617DFBC16A90}" name="状态" totalsRowFunction="count"/>
+    <tableColumn id="8" name="列1" totalsRowLabel="汇总" dataDxfId="3"/>
+    <tableColumn id="1" name="日期时间"/>
+    <tableColumn id="6" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="金额" dataDxfId="0"/>
+    <tableColumn id="3" name="对象"/>
+    <tableColumn id="4" name="备注"/>
+    <tableColumn id="5" name="动作"/>
+    <tableColumn id="7" name="状态" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6611DF2-03E4-4805-9C46-BFD9BB9E9908}" name="表1" displayName="表1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{A84794F6-46D9-407A-B58E-8DEBFF1F59DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B98F5D3F-997D-492F-8F80-02A6B69D4374}" name="发票类型"/>
-    <tableColumn id="2" xr3:uid="{8F7CC066-1E03-4264-8913-D93614B61568}" name="报销摘要"/>
+    <tableColumn id="1" name="发票类型"/>
+    <tableColumn id="2" name="报销摘要"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{442F291D-A78A-46CE-8F1D-6A065FF06281}" name="表1_5" displayName="表1_5" ref="A1:E22" totalsRowShown="0">
-  <autoFilter ref="A1:E22" xr:uid="{36C44F64-3D42-4060-B380-7455F8354EE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:E22" totalsRowShown="0">
+  <autoFilter ref="A1:E22"/>
   <sortState ref="A2:E22">
     <sortCondition ref="B15"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{159E6F62-1882-4032-A9B4-40C57BF0B98D}" name="姓名"/>
-    <tableColumn id="5" xr3:uid="{18F11215-CCBC-4E56-91CA-BD6305D9C137}" name="单位" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4A17DFC3-0122-401D-AB74-645CEEE089CC}" name="手机"/>
-    <tableColumn id="3" xr3:uid="{DA123AE3-CE07-494F-A6EA-04321390C057}" name="固话"/>
-    <tableColumn id="4" xr3:uid="{3F371BA9-27F5-46C8-918F-710FAA528F67}" name="列1"/>
+    <tableColumn id="1" name="姓名"/>
+    <tableColumn id="5" name="单位" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="手机"/>
+    <tableColumn id="3" name="固话"/>
+    <tableColumn id="4" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1323,12 +1365,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744565C-40B5-4F70-8FBE-A324FCB9D218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43462</v>
       </c>
@@ -1371,7 +1413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>43462</v>
       </c>
@@ -1386,7 +1428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43462.333333333336</v>
       </c>
@@ -1401,7 +1443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>43462.368055555555</v>
       </c>
@@ -1416,7 +1458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43462.375</v>
       </c>
@@ -1431,7 +1473,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>43462.434027777781</v>
       </c>
@@ -1443,7 +1485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43462.4375</v>
       </c>
@@ -1458,7 +1500,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>43462.583333333336</v>
       </c>
@@ -1473,7 +1515,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>43463</v>
       </c>
@@ -1490,7 +1532,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>43463</v>
       </c>
@@ -1503,7 +1545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43463</v>
       </c>
@@ -1518,7 +1560,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>43463</v>
       </c>
@@ -1528,10 +1570,10 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43463</v>
       </c>
@@ -1544,7 +1586,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>43463</v>
       </c>
@@ -1559,7 +1601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43463</v>
       </c>
@@ -1569,10 +1611,10 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>43463</v>
       </c>
@@ -1583,7 +1625,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>43463.541666666664</v>
       </c>
@@ -1596,7 +1638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>43464</v>
       </c>
@@ -1608,10 +1650,10 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>43465</v>
       </c>
@@ -1628,7 +1670,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>43466.333333333336</v>
       </c>
@@ -1667,7 +1709,9 @@
       <c r="D23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
@@ -1687,7 +1731,7 @@
         <v>43467</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>94</v>
@@ -1695,7 +1739,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>43467</v>
       </c>
@@ -1706,9 +1750,11 @@
         <v>99</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>43467</v>
       </c>
@@ -1719,7 +1765,9 @@
         <v>109</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
@@ -1743,22 +1791,26 @@
         <v>188</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>43467</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>43467.354166666664</v>
       </c>
@@ -1775,59 +1827,59 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>43467.354861111111</v>
+        <v>43467.375</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>43467.375</v>
+        <v>43467.416666666664</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>43467.416666666664</v>
+        <v>43467.666666666664</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>43467.666666666664</v>
+        <v>43468</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>43469</v>
       </c>
@@ -1840,7 +1892,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>43469.375</v>
       </c>
@@ -1853,7 +1905,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>43472</v>
       </c>
@@ -1866,28 +1918,68 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>43468</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
+        <v>43468.625</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>43469.458333333336</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA2C575-7C37-4ADA-9032-BFC4467E478D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2369,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2452,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D26AAD6-F949-4369-8789-A402342228FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C814D24-6175-4B15-9374-E388406555AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="填报销单" sheetId="1" r:id="rId3"/>
     <sheet name="通讯录" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,444 +28,444 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="204">
   <si>
     <t>餐饮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>发票类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>报销摘要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>餐饮费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>公交充值卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>交通费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高速公路通行费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>差旅费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>过桥费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>住宿费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>停车费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>日期时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对象</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>师傅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>师傅垫付 SOC8YMCERD1001 舱单费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>进出账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>张冬生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>填报销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1224出差南通矿泉水和住宿费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>杨湖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>垫付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>师傅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>师傅垫付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>填报销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>领报销款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>超市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>酒店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>陈荔仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>交给师傅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>列1</t>
   </si>
   <si>
     <t>1219-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1224-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1227-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1224出差南通付住宿费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1224出差南通买矿泉水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>杨总垫付1224出差南通路桥和餐饮费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>贴一张A4纸上，大的不用贴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1224-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1224出差南通矿泉水和住宿费报销款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>杨总垫付1224出差南通路桥和餐饮费报销款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>汇总</t>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Todo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>唐山SEAU1224077昨天没装好？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>日陆 CHSI1812033 换单费已出，可录系统，申请付款，确认电放状态。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>找陈姐报销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已领1931</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224056要清洗，周菁还没有确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>和杨总探讨相对日陆我们的优势在哪里</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中化帮我们查年检费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SIMU6109243 25号申请进罐的，还没进场么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>报销款1421元给杨总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1400现金21微信已转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1228-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>师傅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>垫付CHSI1812033舱单50元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1227-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>帮杨总报销的1224出差费用给杨总了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>转交</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>垫付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>拿到发票后报销舱单费50元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224056 找青岛堆场要这个罐子清洗报价给周菁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已换单，送到报关行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>今天日报已经进了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>早上发确认照片已经走了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>王紫晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>填报销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Tanks.xlsm CtrlL好像不好用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制作流程记录一览表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2291 4014两个罐子今天上船</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>部分罐子装货和上船时间有准确数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>几票进口完了整理一下进口流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>昨天聊天记录和邮件还没理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>补上之前的装货记录，实现本期使用自动计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>忘记跟杨总说了，转明天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>28日晚完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>找朱薇薇报SEAU1224040洗、气、露费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已去要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已发邮件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224056的清洗费已报给周菁，气相阀漏气需待洗完后确认维修方案和价格，先盯周菁确认清洗费。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224056 1月6号能清洗好？好了要维修方案和报价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>找朱薇薇确认SEAU1224122年检进度，要SEAU1224040的维护费用，节前已要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>柯豪三个罐子29号已开船，没收到提单找何昆要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>问束净：柯豪三个罐子预计2019-01-04 10:00 到上海港，申报材料是不是放假就要发给申报行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CHSI1812036</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>师傅到公司来给日陆的提货单复印件和发票，录系统填报销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CHSI1812033</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>早上找束姐确认报关资料，发报关资料给黄燕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>COSCO 船公司统一申报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>确认罐子已进</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>看一下有没有收到提单，没有微信问一问何昆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>盯船靠，查到海关确报马上通知报关，通知车队排计划，发进罐申请</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电放状态没问题，费用录系统，确定了换单费后填付费申请马上付费，准备提单复印件和电放保函，早上就给师傅去换单，要拉舱单，送黄燕，发留箱信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CHSI1812035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>看安科单子有什么要做的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
@@ -477,14 +478,14 @@
   </si>
   <si>
     <t>列1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>陈荔仙</t>
   </si>
   <si>
     <t>135-0165-1556</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>021-63831991</t>
@@ -494,25 +495,25 @@
   </si>
   <si>
     <t>180-1972-4333</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>杨湖</t>
   </si>
   <si>
     <t>189-1836-5750</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>021-63831886</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>束净</t>
   </si>
   <si>
     <t>137-8897-9200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>蔡明</t>
@@ -522,21 +523,21 @@
   </si>
   <si>
     <t>021-36392681</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>印淳</t>
   </si>
   <si>
     <t>136-0174-9559</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>李园</t>
   </si>
   <si>
     <t>136-5180-5434</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>021-63831955</t>
@@ -546,7 +547,7 @@
   </si>
   <si>
     <t>139-1881-7500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>021-36392681</t>
@@ -556,7 +557,7 @@
   </si>
   <si>
     <t>180-1930-9234</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>021-63831957</t>
@@ -566,264 +567,294 @@
   </si>
   <si>
     <t>156-1821-1607</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>021-36392680</t>
   </si>
   <si>
     <t>朱薇薇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>151-9086-4663</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>0513-81191116</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>杨阳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>132-8080-7390</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>0532-82987650</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>陈晓冬</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>151-0542-6323</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>0532-82987659</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>李辰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>周经理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>139-0193-7450</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>周菁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>186-1687-1355</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>021-58355611/2/3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>何昆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>06-6227-8792</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>杨潇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>138-1880-5812</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>021-31769521</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>姚翻</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>021-66076023</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>137-6465-8163</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合誉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>日本代理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>QQ2853366123</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P2Forwarder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>柯豪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>青岛代理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>青岛堆场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>南通堆场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>alex.yang@albatross-tanks.com</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>132-8080-3816</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GL年检</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20181230-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>鸿翔报关发票20181230节前已录入系统，等发票到了贴一起给陈姐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节前青岛走的两个罐子李辰给了报关单，问束姐什么时候要放行单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1228-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>领报销款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224056</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>日禄是哪家单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>29日邮件已发来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>梳理一下发件箱，梳理一下所有罐子最新状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这个罐子24号确认价格的，问问维修进度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SIMU6109243</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>9号要装货，通知一下气密时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224122
 SEAU1224040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>价格表做好给杨总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4035今天能提箱了？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>今天气密做好了？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>159-0193-7079</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再确认一下4040周末可以提箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>136-6158-6804</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -856,6 +887,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -898,52 +930,58 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1035,69 +1073,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E42" totalsRowShown="0">
-  <autoFilter ref="A1:E42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E43" totalsRowShown="0">
+  <autoFilter ref="A1:E43" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
-      <dynamicFilter type="today" val="43467" maxVal="43468"/>
+      <filters>
+        <dateGroupItem year="2019" month="1" day="2" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="1" day="3" dateTimeGrouping="day"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A22:E42">
-    <sortCondition ref="A33"/>
+  <sortState ref="A35:E41">
+    <sortCondition ref="A28"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" dataDxfId="6" dataCellStyle="常规 4"/>
-    <tableColumn id="5" name="Id" dataDxfId="5" dataCellStyle="常规 4"/>
-    <tableColumn id="2" name="Todo" dataDxfId="4"/>
-    <tableColumn id="3" name="Result"/>
-    <tableColumn id="4" name="Status"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="6" dataCellStyle="常规 4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="5" dataCellStyle="常规 4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
-  <autoFilter ref="A1:H29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
+  <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" name="列1" totalsRowLabel="汇总" dataDxfId="3"/>
-    <tableColumn id="1" name="日期时间"/>
-    <tableColumn id="6" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="金额" dataDxfId="0"/>
-    <tableColumn id="3" name="对象"/>
-    <tableColumn id="4" name="备注"/>
-    <tableColumn id="5" name="动作"/>
-    <tableColumn id="7" name="状态" totalsRowFunction="count"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="对象"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="备注"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="动作"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="状态" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1" displayName="表1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="发票类型"/>
-    <tableColumn id="2" name="报销摘要"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="发票类型"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="报销摘要"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:E22" totalsRowShown="0">
-  <autoFilter ref="A1:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1_5" displayName="表1_5" ref="A1:E23" totalsRowShown="0">
+  <autoFilter ref="A1:E23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="A2:E22">
     <sortCondition ref="B15"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="姓名"/>
-    <tableColumn id="5" name="单位" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="手机"/>
-    <tableColumn id="3" name="固话"/>
-    <tableColumn id="4" name="列1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="姓名"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="单位" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="手机"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="固话"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1365,12 +1406,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1698,7 +1739,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>43467</v>
       </c>
@@ -1780,7 +1821,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>43467</v>
       </c>
@@ -1951,7 +1992,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>43469.458333333336</v>
       </c>
@@ -1964,8 +2005,21 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>43469</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1975,7 +2029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -2451,7 +2505,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2461,7 +2515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2535,7 +2589,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2544,11 +2598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2845,8 +2899,19 @@
         <v>174</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C814D24-6175-4B15-9374-E388406555AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2D701B-73EB-4F0D-9B48-7F55204AD9BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="填报销单" sheetId="1" r:id="rId3"/>
     <sheet name="通讯录" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,444 +28,444 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="217">
   <si>
     <t>餐饮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发票类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>报销摘要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>餐饮费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>公交充值卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>交通费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>高速公路通行费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>差旅费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>过桥费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>住宿费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>停车费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日期时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对象</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>师傅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>师傅垫付 SOC8YMCERD1001 舱单费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>进出账</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>张冬生</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>填报销</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1224出差南通矿泉水和住宿费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>杨湖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>垫付</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>师傅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>师傅垫付</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>填报销</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>领报销款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>超市</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>酒店</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>陈荔仙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>交给师傅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>动作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>列1</t>
   </si>
   <si>
     <t>1219-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1224-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1227-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1224出差南通付住宿费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1224出差南通买矿泉水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>杨总垫付1224出差南通路桥和餐饮费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>贴一张A4纸上，大的不用贴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1224-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1224出差南通矿泉水和住宿费报销款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>杨总垫付1224出差南通路桥和餐饮费报销款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>汇总</t>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Todo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Result</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>唐山SEAU1224077昨天没装好？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日陆 CHSI1812033 换单费已出，可录系统，申请付款，确认电放状态。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>找陈姐报销</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已领1931</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224056要清洗，周菁还没有确认</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>和杨总探讨相对日陆我们的优势在哪里</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>中化帮我们查年检费用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SIMU6109243 25号申请进罐的，还没进场么？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>报销款1421元给杨总</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1400现金21微信已转</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1228-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>师傅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>垫付CHSI1812033舱单50元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1227-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>帮杨总报销的1224出差费用给杨总了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>转交</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>垫付</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>拿到发票后报销舱单费50元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224056 找青岛堆场要这个罐子清洗报价给周菁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已换单，送到报关行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>今天日报已经进了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>早上发确认照片已经走了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>王紫晶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>填报销</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Tanks.xlsm CtrlL好像不好用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>制作流程记录一览表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2291 4014两个罐子今天上船</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>部分罐子装货和上船时间有准确数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>几票进口完了整理一下进口流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>昨天聊天记录和邮件还没理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>补上之前的装货记录，实现本期使用自动计算</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>忘记跟杨总说了，转明天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>28日晚完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>找朱薇薇报SEAU1224040洗、气、露费用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已去要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已发邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224056的清洗费已报给周菁，气相阀漏气需待洗完后确认维修方案和价格，先盯周菁确认清洗费。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224056 1月6号能清洗好？好了要维修方案和报价</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>找朱薇薇确认SEAU1224122年检进度，要SEAU1224040的维护费用，节前已要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>柯豪三个罐子29号已开船，没收到提单找何昆要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>问束净：柯豪三个罐子预计2019-01-04 10:00 到上海港，申报材料是不是放假就要发给申报行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CHSI1812036</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>师傅到公司来给日陆的提货单复印件和发票，录系统填报销</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CHSI1812033</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>早上找束姐确认报关资料，发报关资料给黄燕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>COSCO 船公司统一申报</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>确认罐子已进</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>看一下有没有收到提单，没有微信问一问何昆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>盯船靠，查到海关确报马上通知报关，通知车队排计划，发进罐申请</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>电放状态没问题，费用录系统，确定了换单费后填付费申请马上付费，准备提单复印件和电放保函，早上就给师傅去换单，要拉舱单，送黄燕，发留箱信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CHSI1812035</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>看安科单子有什么要做的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
@@ -478,14 +478,14 @@
   </si>
   <si>
     <t>列1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>陈荔仙</t>
   </si>
   <si>
     <t>135-0165-1556</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>021-63831991</t>
@@ -495,25 +495,25 @@
   </si>
   <si>
     <t>180-1972-4333</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>杨湖</t>
   </si>
   <si>
     <t>189-1836-5750</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>021-63831886</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>束净</t>
   </si>
   <si>
     <t>137-8897-9200</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>蔡明</t>
@@ -523,21 +523,21 @@
   </si>
   <si>
     <t>021-36392681</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>印淳</t>
   </si>
   <si>
     <t>136-0174-9559</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>李园</t>
   </si>
   <si>
     <t>136-5180-5434</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>021-63831955</t>
@@ -547,7 +547,7 @@
   </si>
   <si>
     <t>139-1881-7500</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>021-36392681</t>
@@ -557,7 +557,7 @@
   </si>
   <si>
     <t>180-1930-9234</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>021-63831957</t>
@@ -567,280 +567,354 @@
   </si>
   <si>
     <t>156-1821-1607</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>021-36392680</t>
   </si>
   <si>
     <t>朱薇薇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>151-9086-4663</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0513-81191116</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>杨阳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>132-8080-7390</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0532-82987650</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>陈晓冬</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>151-0542-6323</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0532-82987659</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>李辰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>周经理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>139-0193-7450</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>周菁</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>186-1687-1355</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>021-58355611/2/3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>何昆</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>06-6227-8792</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>杨潇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>138-1880-5812</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>021-31769521</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>姚翻</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>021-66076023</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>137-6465-8163</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>合誉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日本代理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>中化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>QQ2853366123</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P2Forwarder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>柯豪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>青岛代理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>青岛堆场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>南通堆场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>alex.yang@albatross-tanks.com</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>132-8080-3816</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>GL年检</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>20181230-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>鸿翔报关发票20181230节前已录入系统，等发票到了贴一起给陈姐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>节前青岛走的两个罐子李辰给了报关单，问束姐什么时候要放行单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1228-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>领报销款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224056</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日禄是哪家单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>29日邮件已发来</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>梳理一下发件箱，梳理一下所有罐子最新状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224035</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>这个罐子24号确认价格的，问问维修进度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SIMU6109243</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>9号要装货，通知一下气密时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224122
 SEAU1224040</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224040</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>价格表做好给杨总</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>4035今天能提箱了？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SEAU1224020</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>今天气密做好了？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>顺丰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>159-0193-7079</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>再确认一下4040周末可以提箱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>136-6158-6804</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>159-0193-7079?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104-1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付CHSI1812036舱单50元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小李</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>车队</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>185-2131-3081</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>理货公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>65866229/65866235</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点下班</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄燕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>136-0198-5091</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -930,51 +1004,66 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,7 +1072,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
@@ -992,6 +1081,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1085,13 +1177,13 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A35:E41">
+  <sortState ref="A22:E35">
     <sortCondition ref="A28"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="6" dataCellStyle="常规 4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="5" dataCellStyle="常规 4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="7" dataCellStyle="常规 4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="6" dataCellStyle="常规 4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
   </tableColumns>
@@ -1103,8 +1195,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
   <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="对象"/>
@@ -1128,8 +1220,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1_5" displayName="表1_5" ref="A1:E23" totalsRowShown="0">
-  <autoFilter ref="A1:E23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1_5" displayName="表1_5" ref="A1:E26" totalsRowShown="0">
+  <autoFilter ref="A1:E26" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="A2:E22">
     <sortCondition ref="B15"/>
   </sortState>
@@ -1411,7 +1503,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1440,14 +1532,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43462</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
@@ -1455,14 +1547,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>43462</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E3" t="s">
@@ -1470,14 +1562,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>43462.333333333336</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E4" t="s">
@@ -1485,14 +1577,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>43462.368055555555</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
@@ -1500,26 +1592,26 @@
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>43462.375</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>43462.434027777781</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E7" t="s">
@@ -1527,29 +1619,29 @@
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>43462.4375</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>43462.583333333336</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E9" t="s">
@@ -1557,469 +1649,477 @@
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>43463</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>43463</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>43463</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>43463</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>43463</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>43463</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>43463</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>43463</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>43463.541666666664</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>43464</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>43465</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>43466.333333333336</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>43467</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>43467</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>43467</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>43467</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>43467</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>43467</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>43467</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>43467</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>43467</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>43467.354166666664</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
         <v>43467.375</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>43467.416666666664</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>43467.666666666664</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>43468</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>43469</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>43469.375</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>43472</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>43468</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
         <v>43468.625</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>43469.458333333336</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <v>43469</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="C43" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2033,8 +2133,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2075,14 +2175,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="17">
         <v>43453</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
         <v>50</v>
       </c>
       <c r="E2" t="s">
@@ -2099,14 +2199,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="17">
         <v>43454</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
         <v>50</v>
       </c>
       <c r="E3" t="s">
@@ -2123,16 +2223,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="17">
         <v>43458.854166666664</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>-75</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="1"/>
       <c r="E4" t="s">
         <v>27</v>
       </c>
@@ -2147,16 +2247,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="17">
         <v>43459.375</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>-435</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
       <c r="E5" t="s">
         <v>28</v>
       </c>
@@ -2171,14 +2271,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="17">
         <v>43461.469444444447</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>50</v>
       </c>
       <c r="E6" t="s">
@@ -2195,14 +2295,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="17">
         <v>43461.479861111111</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <f>75+435</f>
         <v>510</v>
       </c>
@@ -2220,14 +2320,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="17">
         <v>43461.479861111111</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
         <f>900+386+70+65</f>
         <v>1421</v>
       </c>
@@ -2245,14 +2345,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="17">
         <v>43461.558333333334</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
         <v>50</v>
       </c>
       <c r="E9" t="s">
@@ -2269,16 +2369,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="17">
         <v>43462.386805555558</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>510</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="E10" t="s">
         <v>29</v>
       </c>
@@ -2293,16 +2393,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="17">
         <v>43462.386805555558</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1421</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>29</v>
       </c>
@@ -2317,16 +2417,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="17">
         <v>43462.409722222219</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>-50</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>64</v>
       </c>
@@ -2341,16 +2441,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="17">
         <v>43462.408333333333</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>-1421</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>21</v>
       </c>
@@ -2365,14 +2465,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="17">
         <v>43462.583333333336</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
         <v>50</v>
       </c>
       <c r="E14" t="s">
@@ -2389,16 +2489,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="17">
         <v>43463</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>50</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="1"/>
       <c r="E15" t="s">
         <v>29</v>
       </c>
@@ -2413,91 +2513,123 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="17">
+        <v>43469.560416666667</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-50</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="17">
+        <v>43469.5625</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <f>SUBTOTAL(109,表2[进出账])</f>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="H30">
         <f>SUBTOTAL(103,表2[状态])</f>
@@ -2505,7 +2637,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2520,7 +2652,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2589,7 +2721,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2599,319 +2731,353 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="7.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>203</v>
       </c>
+      <c r="D23" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2D701B-73EB-4F0D-9B48-7F55204AD9BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963675B0-9DAF-4BE8-A053-151FF94BF742}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
     <sheet name="流水账" sheetId="2" r:id="rId2"/>
     <sheet name="填报销单" sheetId="1" r:id="rId3"/>
     <sheet name="通讯录" sheetId="4" r:id="rId4"/>
+    <sheet name="Passwd" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="230">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -875,6 +876,66 @@
   </si>
   <si>
     <t>报关行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>329***4349</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NingGuoLu22822</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.hb56.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>156****1607</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na6SWIcfV</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>港航纵横</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>123****17</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wjiu******#$</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +948,7 @@
     <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,6 +1025,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1011,7 +1084,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1066,13 +1139,84 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
@@ -1181,9 +1325,9 @@
     <sortCondition ref="A28"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="7" dataCellStyle="常规 4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="6" dataCellStyle="常规 4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="12" dataCellStyle="常规 4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="11" dataCellStyle="常规 4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
   </tableColumns>
@@ -1195,10 +1339,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
   <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="对象"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="备注"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="动作"/>
@@ -1233,6 +1377,19 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5D25B89-C42B-41DF-8862-CCE9D002E6BB}" name="表5" displayName="表5" ref="A1:D16" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:D16" xr:uid="{7AE14B24-54B0-46CC-8648-E17B111A890E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E0CBD3A6-F43A-4044-903D-1353068C1946}" name="平台" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D035829E-5504-4C94-B268-1A9B8FED5B5A}" name="账号" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F7EAEC24-08CD-4E70-A0F3-78F72CF7C177}" name="密码" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{805602B2-9DBF-44FF-97D4-F06C29EECC3F}" name="网址" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2133,7 +2290,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3084,4 +3241,154 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1323433-A64F-419C-A503-4DC343A57315}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963675B0-9DAF-4BE8-A053-151FF94BF742}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AFF439-B867-437E-AAE0-A43D3E7EB3AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="236">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -936,6 +936,30 @@
   </si>
   <si>
     <t>Wjiu******#$</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨阳回复邮件确认三个罐子状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没洗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛洗罐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盯杨阳要两个罐子后面的计划</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1309,20 +1333,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E43" totalsRowShown="0">
-  <autoFilter ref="A1:E43" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2019" month="1" day="2" dateTimeGrouping="day"/>
-        <dateGroupItem year="2019" month="1" day="3" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E44" totalsRowShown="0">
+  <autoFilter ref="A1:E44" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A22:E35">
-    <sortCondition ref="A28"/>
+  <sortState ref="A22:E44">
+    <sortCondition ref="A35"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="12" dataCellStyle="常规 4"/>
@@ -1353,8 +1371,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1" displayName="表1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1" displayName="表1" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="发票类型"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="报销摘要"/>
@@ -1381,13 +1399,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5D25B89-C42B-41DF-8862-CCE9D002E6BB}" name="表5" displayName="表5" ref="A1:D16" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5D25B89-C42B-41DF-8862-CCE9D002E6BB}" name="表5" displayName="表5" ref="A1:D16" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:D16" xr:uid="{7AE14B24-54B0-46CC-8648-E17B111A890E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E0CBD3A6-F43A-4044-903D-1353068C1946}" name="平台" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D035829E-5504-4C94-B268-1A9B8FED5B5A}" name="账号" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F7EAEC24-08CD-4E70-A0F3-78F72CF7C177}" name="密码" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{805602B2-9DBF-44FF-97D4-F06C29EECC3F}" name="网址" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E0CBD3A6-F43A-4044-903D-1353068C1946}" name="平台" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D035829E-5504-4C94-B268-1A9B8FED5B5A}" name="账号" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F7EAEC24-08CD-4E70-A0F3-78F72CF7C177}" name="密码" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{805602B2-9DBF-44FF-97D4-F06C29EECC3F}" name="网址" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1657,10 +1675,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1913,7 +1931,9 @@
         <v>83</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -2158,7 +2178,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>43468</v>
       </c>
@@ -2169,111 +2189,144 @@
         <v>107</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
+        <v>43468</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>43468.625</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>43469</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="D38" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>43469</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>43469.375</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
-        <v>43472</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
-        <v>43468</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
-        <v>43468.625</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>187</v>
+      <c r="A41" s="6">
+        <v>43469.458333333336</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>199</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="E41" s="5" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>43469.458333333336</v>
+        <v>43472</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>43469</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>194</v>
-      </c>
+        <v>43472.666666666664</v>
+      </c>
+      <c r="B43" s="8"/>
       <c r="C43" s="4" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>204</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>43473</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2290,8 +2343,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2806,10 +2859,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2874,6 +2927,14 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3247,7 +3308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1323433-A64F-419C-A503-4DC343A57315}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AFF439-B867-437E-AAE0-A43D3E7EB3AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639971F5-6E74-4FA6-96CD-DD9E42FDC4EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="257">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -900,10 +900,6 @@
   </si>
   <si>
     <t>329***4349</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>NingGuoLu22822</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -960,6 +956,93 @@
   </si>
   <si>
     <t>盯杨阳要两个罐子后面的计划</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NingG****22822</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224122</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>要年检证书</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMU6109243</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>要昨天出场的照片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel/Tanks</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>533*****52</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑫鼎报关预录单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYHY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xindingweb.gnway.org:8081/xdweb/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>预录单放行单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛两票预录单和放行单到了给周菁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已邮件发来</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224020</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个罐子洗好了没？酸洗油漆？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2UPsB8DPyWEQ0OO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>156****1607</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿加</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dp.eptrade.cn/</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +1055,7 @@
     <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1144,13 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1108,7 +1198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1164,10 +1254,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="13">
@@ -1333,14 +1424,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E44" totalsRowShown="0">
-  <autoFilter ref="A1:E44" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E48" totalsRowShown="0">
+  <autoFilter ref="A1:E48" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A22:E44">
-    <sortCondition ref="A35"/>
+  <sortState ref="A22:E48">
+    <sortCondition ref="A48"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="12" dataCellStyle="常规 4"/>
@@ -1675,10 +1766,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1932,7 +2023,7 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2036,7 +2127,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43467</v>
       </c>
@@ -2047,7 +2138,9 @@
         <v>94</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
@@ -2190,7 +2283,7 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2234,10 +2327,10 @@
         <v>93</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2267,7 +2360,7 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2281,10 +2374,10 @@
         <v>199</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2299,7 +2392,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2308,25 +2401,81 @@
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>43473</v>
+        <v>43473.625</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>43474</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>43474</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>43475</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>43475</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2932,7 +3081,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -3308,16 +3457,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1323433-A64F-419C-A503-4DC343A57315}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3342,22 +3491,22 @@
         <v>222</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>226</v>
-      </c>
       <c r="D3" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3365,30 +3514,52 @@
         <v>221</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>243</v>
+      </c>
       <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639971F5-6E74-4FA6-96CD-DD9E42FDC4EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65159CDD-336D-414E-AFFB-AC371F208A41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="269">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1043,6 +1043,53 @@
   </si>
   <si>
     <t>https://dp.eptrade.cn/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象笔记</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>W4sfppdom6r24Eyr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里邮箱/手机号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究一下Evernote</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>残液较多，可能会耽误周末提罐，正在确认时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSCO 换单保函中插入日期域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个罐子什么时候能做气密今天做好了？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4035周末可以提（计划下周三左右）4020中和时间较长，还没确定时间，洗好就洗4056</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>27HnrqDf0Bw2EGFE</t>
+  </si>
+  <si>
+    <t>dongdongqiang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSCO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://elines.coscoshipping.com/ebusiness/</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1055,7 +1102,7 @@
     <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,6 +1198,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1198,7 +1251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1255,13 +1308,25 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1348,9 +1413,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1424,20 +1486,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E48" totalsRowShown="0">
-  <autoFilter ref="A1:E48" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E51" totalsRowShown="0">
+  <autoFilter ref="A1:E51" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A22:E48">
-    <sortCondition ref="A48"/>
-  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="12" dataCellStyle="常规 4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="11" dataCellStyle="常规 4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="13" dataCellStyle="常规 4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="12" dataCellStyle="常规 4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1448,10 +1507,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
   <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="对象"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="备注"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="动作"/>
@@ -1490,13 +1549,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5D25B89-C42B-41DF-8862-CCE9D002E6BB}" name="表5" displayName="表5" ref="A1:D16" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5D25B89-C42B-41DF-8862-CCE9D002E6BB}" name="表5" displayName="表5" ref="A1:D16" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:D16" xr:uid="{7AE14B24-54B0-46CC-8648-E17B111A890E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E0CBD3A6-F43A-4044-903D-1353068C1946}" name="平台" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{D035829E-5504-4C94-B268-1A9B8FED5B5A}" name="账号" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F7EAEC24-08CD-4E70-A0F3-78F72CF7C177}" name="密码" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{805602B2-9DBF-44FF-97D4-F06C29EECC3F}" name="网址" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E0CBD3A6-F43A-4044-903D-1353068C1946}" name="平台" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D035829E-5504-4C94-B268-1A9B8FED5B5A}" name="账号" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F7EAEC24-08CD-4E70-A0F3-78F72CF7C177}" name="密码" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{805602B2-9DBF-44FF-97D4-F06C29EECC3F}" name="网址" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1766,10 +1825,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1805,7 +1864,7 @@
       <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
@@ -1820,7 +1879,7 @@
       <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E3" t="s">
@@ -1835,7 +1894,7 @@
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E4" t="s">
@@ -1850,7 +1909,7 @@
       <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
@@ -1867,7 +1926,7 @@
       <c r="C6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
       <c r="E6" t="s">
         <v>62</v>
       </c>
@@ -1880,6 +1939,7 @@
       <c r="C7" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="D7" s="7"/>
       <c r="E7" t="s">
         <v>62</v>
       </c>
@@ -1892,7 +1952,7 @@
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1907,7 +1967,7 @@
       <c r="C9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E9" t="s">
@@ -1924,7 +1984,7 @@
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1939,7 +1999,7 @@
       <c r="C11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
         <v>90</v>
       </c>
@@ -1952,7 +2012,7 @@
       <c r="C12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1967,7 +2027,7 @@
       <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
         <v>191</v>
       </c>
@@ -1980,7 +2040,7 @@
       <c r="C14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
         <v>91</v>
       </c>
@@ -1993,7 +2053,7 @@
       <c r="C15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2008,7 +2068,7 @@
       <c r="C16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="5" t="s">
         <v>191</v>
       </c>
@@ -2021,7 +2081,7 @@
       <c r="C17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
         <v>231</v>
       </c>
@@ -2034,7 +2094,7 @@
       <c r="C18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
         <v>90</v>
       </c>
@@ -2049,7 +2109,7 @@
       <c r="C19" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
         <v>191</v>
       </c>
@@ -2064,7 +2124,7 @@
       <c r="C20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2081,7 +2141,7 @@
       <c r="C21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2096,7 +2156,7 @@
       <c r="C22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2107,7 +2167,7 @@
       <c r="C23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2124,7 +2184,7 @@
       <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
@@ -2137,7 +2197,7 @@
       <c r="C25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
         <v>237</v>
       </c>
@@ -2152,7 +2212,7 @@
       <c r="C26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="5" t="s">
         <v>192</v>
       </c>
@@ -2167,7 +2227,7 @@
       <c r="C27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="5" t="s">
         <v>192</v>
       </c>
@@ -2180,7 +2240,7 @@
       <c r="C28" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2193,7 +2253,7 @@
       <c r="C29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="5" t="s">
         <v>196</v>
       </c>
@@ -2208,7 +2268,7 @@
       <c r="C30" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
         <v>192</v>
       </c>
@@ -2223,7 +2283,7 @@
       <c r="C31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -2240,7 +2300,7 @@
       <c r="C32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
         <v>204</v>
       </c>
@@ -2255,7 +2315,7 @@
       <c r="C33" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2268,7 +2328,7 @@
       <c r="C34" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
@@ -2281,7 +2341,7 @@
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="5" t="s">
         <v>231</v>
       </c>
@@ -2296,7 +2356,7 @@
       <c r="C36" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2311,7 +2371,7 @@
       <c r="C37" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
         <v>204</v>
       </c>
@@ -2326,7 +2386,7 @@
       <c r="C38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>232</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -2343,7 +2403,7 @@
       <c r="C39" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="5" t="s">
         <v>204</v>
       </c>
@@ -2358,7 +2418,7 @@
       <c r="C40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="5" t="s">
         <v>231</v>
       </c>
@@ -2373,7 +2433,7 @@
       <c r="C41" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>232</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -2390,7 +2450,7 @@
       <c r="C42" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="5" t="s">
         <v>231</v>
       </c>
@@ -2403,7 +2463,7 @@
       <c r="C43" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="5" t="s">
         <v>231</v>
       </c>
@@ -2418,50 +2478,48 @@
       <c r="C44" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>249</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>43474</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D45" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>43474</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>251</v>
-      </c>
+        <v>43474.791666666664</v>
+      </c>
+      <c r="B46" s="8"/>
       <c r="C46" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D46" s="5"/>
+        <v>262</v>
+      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
-        <v>43475</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="A47" s="24">
+        <v>43474.833333333336</v>
+      </c>
+      <c r="B47" s="25"/>
       <c r="C47" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>260</v>
+      </c>
+      <c r="D47" s="4"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2474,8 +2532,47 @@
       <c r="C48" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>43476.5625</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>43479</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2493,7 +2590,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3098,6 +3195,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3455,16 +3553,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1323433-A64F-419C-A503-4DC343A57315}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3562,16 +3661,30 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>258</v>
+      </c>
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65159CDD-336D-414E-AFFB-AC371F208A41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B5D33-8460-4F9D-A988-5BCF645C2DB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="275">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1070,10 +1070,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>三个罐子什么时候能做气密今天做好了？</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>4035周末可以提（计划下周三左右）4020中和时间较长，还没确定时间，洗好就洗4056</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1090,6 +1086,34 @@
   </si>
   <si>
     <t>http://elines.coscoshipping.com/ebusiness/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>没下文了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>领报销款</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个罐子气密今天做好了？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱薇薇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天给</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天给证书</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1251,39 +1275,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1308,11 +1307,41 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1320,12 +1349,81 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1404,73 +1502,10 @@
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1486,18 +1521,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E51" totalsRowShown="0">
-  <autoFilter ref="A1:E51" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E52" totalsRowShown="0" dataDxfId="1">
+  <autoFilter ref="A1:E52" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
+  <sortState ref="A22:E52">
+    <sortCondition ref="A28"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="13" dataCellStyle="常规 4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="12" dataCellStyle="常规 4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="6" dataCellStyle="常规 4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="5" dataCellStyle="常规 4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1507,10 +1545,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
   <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="对象"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="备注"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="动作"/>
@@ -1549,13 +1587,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5D25B89-C42B-41DF-8862-CCE9D002E6BB}" name="表5" displayName="表5" ref="A1:D16" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5D25B89-C42B-41DF-8862-CCE9D002E6BB}" name="表5" displayName="表5" ref="A1:D16" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="A1:D16" xr:uid="{7AE14B24-54B0-46CC-8648-E17B111A890E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E0CBD3A6-F43A-4044-903D-1353068C1946}" name="平台" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D035829E-5504-4C94-B268-1A9B8FED5B5A}" name="账号" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F7EAEC24-08CD-4E70-A0F3-78F72CF7C177}" name="密码" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{805602B2-9DBF-44FF-97D4-F06C29EECC3F}" name="网址" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E0CBD3A6-F43A-4044-903D-1353068C1946}" name="平台" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{D035829E-5504-4C94-B268-1A9B8FED5B5A}" name="账号" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F7EAEC24-08CD-4E70-A0F3-78F72CF7C177}" name="密码" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{805602B2-9DBF-44FF-97D4-F06C29EECC3F}" name="网址" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1825,10 +1863,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1857,722 +1895,745 @@
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="15">
         <v>43462</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="19">
         <v>43462</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="19">
         <v>43462.333333333336</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="19">
         <v>43462.368055555555</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="19">
         <v>43462.375</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="19">
         <v>43462.434027777781</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="19">
         <v>43462.4375</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="19">
         <v>43462.583333333336</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="19">
         <v>43463</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="19">
         <v>43463</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="19">
         <v>43463</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="19">
         <v>43463</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="19">
         <v>43463</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="19">
         <v>43463</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="19">
         <v>43463</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="19">
         <v>43463</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="21" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="19">
         <v>43463.541666666664</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="19">
         <v>43464</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="19">
         <v>43465</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="19">
         <v>43466.333333333336</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="19">
         <v>43467</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="19">
         <v>43467</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="21" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="19">
         <v>43467</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="19">
         <v>43467</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="19">
         <v>43467</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="19">
         <v>43467</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="19">
         <v>43467</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="15">
         <v>43467</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="21" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="19">
         <v>43467</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="17"/>
+      <c r="E30" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="19">
         <v>43467.354166666664</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="19">
         <v>43467.375</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+    <row r="33" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19">
         <v>43467.416666666664</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="19">
         <v>43467.666666666664</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="19">
         <v>43468</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="21" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="19">
         <v>43468</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="21" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="A37" s="23">
         <v>43468.625</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="21" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="19">
         <v>43469</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="21" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="19">
         <v>43469</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="21" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="19">
         <v>43469.375</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="21" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="19">
         <v>43469.458333333336</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="21" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="19">
         <v>43472</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="21" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="19">
         <v>43472.666666666664</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5" t="s">
+      <c r="D43" s="17"/>
+      <c r="E43" s="21" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="19">
         <v>43473.625</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="21" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="19">
         <v>43474</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E45" s="5"/>
+      <c r="D45" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="19">
         <v>43474.791666666664</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="24">
+      <c r="A47" s="25">
         <v>43474.833333333336</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="D47" s="17"/>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19">
         <v>43475</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
+      <c r="D48" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="19">
         <v>43476</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="19">
         <v>43476.5625</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="19">
+        <v>43476.583333333336</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="19">
         <v>43479</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
+      <c r="B52" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2590,7 +2651,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2634,7 +2695,7 @@
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="8">
         <v>43453</v>
       </c>
       <c r="C2" s="1"/>
@@ -2658,7 +2719,7 @@
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="8">
         <v>43454</v>
       </c>
       <c r="C3" s="1"/>
@@ -2682,7 +2743,7 @@
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="8">
         <v>43458.854166666664</v>
       </c>
       <c r="C4" s="1">
@@ -2706,7 +2767,7 @@
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="8">
         <v>43459.375</v>
       </c>
       <c r="C5" s="1">
@@ -2730,7 +2791,7 @@
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="8">
         <v>43461.469444444447</v>
       </c>
       <c r="C6" s="1"/>
@@ -2754,7 +2815,7 @@
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="8">
         <v>43461.479861111111</v>
       </c>
       <c r="C7" s="1"/>
@@ -2779,7 +2840,7 @@
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="8">
         <v>43461.479861111111</v>
       </c>
       <c r="C8" s="1"/>
@@ -2804,7 +2865,7 @@
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="8">
         <v>43461.558333333334</v>
       </c>
       <c r="C9" s="1"/>
@@ -2828,7 +2889,7 @@
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="8">
         <v>43462.386805555558</v>
       </c>
       <c r="C10" s="1">
@@ -2852,7 +2913,7 @@
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="8">
         <v>43462.386805555558</v>
       </c>
       <c r="C11" s="1">
@@ -2876,7 +2937,7 @@
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="8">
         <v>43462.409722222219</v>
       </c>
       <c r="C12" s="1">
@@ -2900,7 +2961,7 @@
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="8">
         <v>43462.408333333333</v>
       </c>
       <c r="C13" s="1">
@@ -2924,7 +2985,7 @@
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="8">
         <v>43462.583333333336</v>
       </c>
       <c r="C14" s="1"/>
@@ -2948,7 +3009,7 @@
       <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="8">
         <v>43463</v>
       </c>
       <c r="C15" s="1">
@@ -2972,7 +3033,7 @@
       <c r="A16" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="8">
         <v>43469.560416666667</v>
       </c>
       <c r="C16" s="1">
@@ -2988,12 +3049,15 @@
       <c r="G16" t="s">
         <v>22</v>
       </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="8">
         <v>43469.5625</v>
       </c>
       <c r="C17" s="1"/>
@@ -3006,76 +3070,94 @@
       <c r="G17" t="s">
         <v>19</v>
       </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="8">
+        <v>43475.370138888888</v>
+      </c>
+      <c r="C18" s="1">
+        <v>50</v>
+      </c>
       <c r="D18" s="1"/>
+      <c r="F18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="17"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="17"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="17"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
@@ -3085,11 +3167,11 @@
       </c>
       <c r="C30" s="1">
         <f>SUBTOTAL(109,表2[进出账])</f>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <f>SUBTOTAL(103,表2[状态])</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3204,340 +3286,340 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="11" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3556,8 +3638,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3583,150 +3665,150 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="13" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="13" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B5D33-8460-4F9D-A988-5BCF645C2DB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC371A1-D622-4780-84CD-36BF02F39001}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="274">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1026,10 +1026,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>这个罐子洗好了没？酸洗油漆？</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>E2UPsB8DPyWEQ0OO</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1062,10 +1058,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>残液较多，可能会耽误周末提罐，正在确认时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>COSCO 换单保函中插入日期域</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1114,6 +1106,10 @@
   </si>
   <si>
     <t>今天给证书</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复杨阳确认维修</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1866,7 +1862,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2354,10 +2350,10 @@
         <v>178</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2538,7 +2534,7 @@
         <v>234</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E45" s="21"/>
     </row>
@@ -2548,7 +2544,7 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="21"/>
@@ -2559,7 +2555,7 @@
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="21"/>
@@ -2575,10 +2571,10 @@
         <v>238</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2589,11 +2585,9 @@
         <v>251</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>261</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="D49" s="17"/>
       <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2617,7 +2611,7 @@
         <v>236</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="21"/>
@@ -2627,10 +2621,10 @@
         <v>43479</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="21"/>
@@ -3089,7 +3083,7 @@
         <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H18" t="s">
         <v>33</v>
@@ -3730,42 +3724,42 @@
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC371A1-D622-4780-84CD-36BF02F39001}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA83BBD2-7463-4BE3-817A-9E8DFE2F85A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="275">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -872,10 +872,6 @@
   </si>
   <si>
     <t>136-0198-5091</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>报关行</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1110,6 +1106,14 @@
   </si>
   <si>
     <t>回复杨阳确认维修</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关行，大连路950号406室</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1222,6 +1226,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1347,81 +1352,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1498,10 +1428,85 @@
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1517,7 +1522,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E52" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E52" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A1:E52" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="4">
       <filters blank="1"/>
@@ -1527,11 +1532,11 @@
     <sortCondition ref="A28"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="6" dataCellStyle="常规 4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="5" dataCellStyle="常规 4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="14" dataCellStyle="常规 4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="13" dataCellStyle="常规 4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1541,10 +1546,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
   <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="对象"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="备注"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="动作"/>
@@ -1583,13 +1588,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5D25B89-C42B-41DF-8862-CCE9D002E6BB}" name="表5" displayName="表5" ref="A1:D16" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5D25B89-C42B-41DF-8862-CCE9D002E6BB}" name="表5" displayName="表5" ref="A1:D16" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:D16" xr:uid="{7AE14B24-54B0-46CC-8648-E17B111A890E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E0CBD3A6-F43A-4044-903D-1353068C1946}" name="平台" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D035829E-5504-4C94-B268-1A9B8FED5B5A}" name="账号" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F7EAEC24-08CD-4E70-A0F3-78F72CF7C177}" name="密码" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{805602B2-9DBF-44FF-97D4-F06C29EECC3F}" name="网址" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{E0CBD3A6-F43A-4044-903D-1353068C1946}" name="平台" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D035829E-5504-4C94-B268-1A9B8FED5B5A}" name="账号" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F7EAEC24-08CD-4E70-A0F3-78F72CF7C177}" name="密码" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{805602B2-9DBF-44FF-97D4-F06C29EECC3F}" name="网址" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1861,8 +1866,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2122,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2208,7 +2213,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>43467</v>
       </c>
@@ -2219,7 +2224,9 @@
         <v>92</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="21" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
@@ -2233,7 +2240,7 @@
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
@@ -2266,7 +2273,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>43467</v>
       </c>
@@ -2275,7 +2282,9 @@
         <v>179</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="21" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
@@ -2350,13 +2359,13 @@
         <v>178</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>43467.666666666664</v>
       </c>
@@ -2367,7 +2376,9 @@
         <v>184</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="21" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
@@ -2381,7 +2392,7 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2425,10 +2436,10 @@
         <v>93</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2458,7 +2469,7 @@
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2472,10 +2483,10 @@
         <v>199</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2490,7 +2501,7 @@
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2499,11 +2510,11 @@
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -2511,16 +2522,16 @@
         <v>43473.625</v>
       </c>
       <c r="B44" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>240</v>
-      </c>
       <c r="D44" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2528,13 +2539,13 @@
         <v>43474</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>234</v>
-      </c>
       <c r="D45" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E45" s="21"/>
     </row>
@@ -2544,7 +2555,7 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="21"/>
@@ -2555,7 +2566,7 @@
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="21"/>
@@ -2565,66 +2576,70 @@
         <v>43475</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>43476</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C49" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
-        <v>43476.5625</v>
+        <v>43479</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>248</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>43476.583333333336</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="21" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>43479</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="21"/>
@@ -3083,7 +3098,7 @@
         <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H18" t="s">
         <v>33</v>
@@ -3254,7 +3269,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -3274,8 +3289,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3614,7 +3629,7 @@
         <v>215</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3646,120 +3661,120 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>217</v>
-      </c>
-      <c r="B1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>222</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>225</v>
-      </c>
       <c r="D3" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">

--- a/co-honour/Notebook.xlsx
+++ b/co-honour/Notebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA83BBD2-7463-4BE3-817A-9E8DFE2F85A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E7727-9844-46E8-9436-F5B86D641961}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todo" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="295">
   <si>
     <t>餐饮</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1114,6 +1114,84 @@
   </si>
   <si>
     <t>报关行，大连路950号406室</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育一卡通</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>方菊花收到照片了？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0114-1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付CHSI1901001舱单50元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报销</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>车队</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>137-6499-9454</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海15805893提货单寄小单，浦东新区杨高北一路90号联办楼507室</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASU5140405990</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>提货单有没有寄到，跟踪提货</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224056</t>
+  </si>
+  <si>
+    <t>0114杨阳说周日0120可以都做好，叮嘱一下</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟朱薇薇确认这个罐子明天（周三）提没问题吧</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224020</t>
+  </si>
+  <si>
+    <t>跟杨阳确认这个罐子明天（周三）提没问题吧</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>好了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224035</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洗和残留物清理是否重复</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1204,7 @@
     <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1229,6 +1307,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1276,14 +1360,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1344,13 +1427,31 @@
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1420,6 +1521,9 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
@@ -1522,21 +1626,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E52" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="A1:E52" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_4" displayName="表1_4" ref="A1:E58" totalsRowShown="0" dataDxfId="16">
+  <autoFilter ref="A1:E58" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A22:E52">
-    <sortCondition ref="A28"/>
+  <sortState ref="A22:E57">
+    <sortCondition ref="A50"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="14" dataCellStyle="常规 4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="13" dataCellStyle="常规 4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="15" dataCellStyle="常规 4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="14" dataCellStyle="常规 4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Todo" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1546,10 +1650,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:H30" totalsRowCount="1">
   <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="列1" totalsRowLabel="汇总" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期时间" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="进出账" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="金额" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="对象"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="备注"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="动作"/>
@@ -1571,8 +1675,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1_5" displayName="表1_5" ref="A1:E26" totalsRowShown="0">
-  <autoFilter ref="A1:E26" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1_5" displayName="表1_5" ref="A1:E27" totalsRowShown="0">
+  <autoFilter ref="A1:E27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="A2:E22">
     <sortCondition ref="B15"/>
   </sortState>
@@ -1581,7 +1685,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="单位" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="手机"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="固话"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="列1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="列1" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1864,10 +1968,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1896,753 +2000,835 @@
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>43462</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>43462</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>43462.333333333336</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>43462.368055555555</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>43462.375</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>43462.434027777781</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>43462.4375</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>43462.583333333336</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>43463</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>43463</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>43463</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>43463</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>43463</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>43463</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>43463</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>43463</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>43463.541666666664</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>43464</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>43465</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>43466.333333333336</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>43467</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>43467</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>43467</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="20" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>43467</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="20" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>43467</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <v>43467</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>43467</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="20" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>43467</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>43467</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>43467.354166666664</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>43467.375</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="20" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>43467.416666666664</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
+      <c r="A34" s="18">
         <v>43467.666666666664</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="20" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <v>43468</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
+      <c r="A36" s="18">
         <v>43468</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="20" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
+      <c r="A37" s="22">
         <v>43468.625</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="20" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <v>43469</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>43469</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="20" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <v>43469.375</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19">
+      <c r="A41" s="18">
         <v>43469.458333333336</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
+      <c r="A42" s="18">
         <v>43472</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="16"/>
+      <c r="E42" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19">
+      <c r="A43" s="18">
         <v>43472.666666666664</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19">
+      <c r="A44" s="18">
         <v>43473.625</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="20" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="19">
+      <c r="A45" s="18">
         <v>43474</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="19">
+      <c r="A46" s="18">
         <v>43474.791666666664</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="15"/>
+      <c r="C46" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="21"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="20"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <v>43474.833333333336</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="21"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19">
+      <c r="A48" s="18">
         <v>43475</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="20" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19">
+      <c r="A49" s="18">
         <v>43476</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="21" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="20" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="19">
+      <c r="A50" s="18">
         <v>43479</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="21"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="20"/>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19">
+      <c r="A51" s="18">
         <v>43476.583333333336</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="19">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="18">
         <v>43479</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="21"/>
+      <c r="D52" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="18">
+        <v>43480</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="20"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="18">
+        <v>43480</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="18">
+        <v>43480.416666666664</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="26">
+        <v>43482</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
+        <v>43483</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="26">
+        <v>43480</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2659,8 +2845,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2704,7 +2890,7 @@
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>43453</v>
       </c>
       <c r="C2" s="1"/>
@@ -2728,7 +2914,7 @@
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>43454</v>
       </c>
       <c r="C3" s="1"/>
@@ -2752,7 +2938,7 @@
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>43458.854166666664</v>
       </c>
       <c r="C4" s="1">
@@ -2776,7 +2962,7 @@
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>43459.375</v>
       </c>
       <c r="C5" s="1">
@@ -2800,7 +2986,7 @@
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>43461.469444444447</v>
       </c>
       <c r="C6" s="1"/>
@@ -2824,7 +3010,7 @@
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>43461.479861111111</v>
       </c>
       <c r="C7" s="1"/>
@@ -2849,7 +3035,7 @@
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>43461.479861111111</v>
       </c>
       <c r="C8" s="1"/>
@@ -2874,7 +3060,7 @@
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>43461.558333333334</v>
       </c>
       <c r="C9" s="1"/>
@@ -2898,7 +3084,7 @@
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>43462.386805555558</v>
       </c>
       <c r="C10" s="1">
@@ -2922,7 +3108,7 @@
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>43462.386805555558</v>
       </c>
       <c r="C11" s="1">
@@ -2946,7 +3132,7 @@
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>43462.409722222219</v>
       </c>
       <c r="C12" s="1">
@@ -2970,7 +3156,7 @@
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>43462.408333333333</v>
       </c>
       <c r="C13" s="1">
@@ -2994,7 +3180,7 @@
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>43462.583333333336</v>
       </c>
       <c r="C14" s="1"/>
@@ -3018,7 +3204,7 @@
       <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>43463</v>
       </c>
       <c r="C15" s="1">
@@ -3042,7 +3228,7 @@
       <c r="A16" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>43469.560416666667</v>
       </c>
       <c r="C16" s="1">
@@ -3066,7 +3252,7 @@
       <c r="A17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>43469.5625</v>
       </c>
       <c r="C17" s="1"/>
@@ -3087,7 +3273,7 @@
       <c r="A18" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>43475.370138888888</v>
       </c>
       <c r="C18" s="1">
@@ -3105,68 +3291,113 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="7">
+        <v>43479.388888888891</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-50</v>
+      </c>
       <c r="D19" s="1"/>
+      <c r="F19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="7">
+        <v>43479.513888888891</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="7">
+        <v>43479.625694444447</v>
+      </c>
+      <c r="C21" s="1">
+        <v>50</v>
+      </c>
       <c r="D21" s="1"/>
+      <c r="F21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
@@ -3180,7 +3411,7 @@
       </c>
       <c r="H30">
         <f>SUBTOTAL(103,表2[状态])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3430,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3287,10 +3518,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3330,6 +3561,7 @@
       <c r="C2" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3341,7 +3573,7 @@
       <c r="D3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="29" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3358,6 +3590,7 @@
       <c r="D4" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -3369,6 +3602,7 @@
       <c r="C5" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -3383,6 +3617,7 @@
       <c r="D6" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -3394,6 +3629,7 @@
       <c r="C7" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -3402,6 +3638,7 @@
       <c r="B8" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -3413,6 +3650,7 @@
       <c r="D9" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -3424,6 +3662,7 @@
       <c r="C10" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -3438,6 +3677,7 @@
       <c r="D11" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -3452,6 +3692,7 @@
       <c r="D12" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -3466,6 +3707,7 @@
       <c r="D13" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -3480,6 +3722,7 @@
       <c r="D14" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -3491,6 +3734,7 @@
       <c r="C15" s="3" t="s">
         <v>163</v>
       </c>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -3505,6 +3749,7 @@
       <c r="D16" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -3519,6 +3764,7 @@
       <c r="D17" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -3527,6 +3773,7 @@
       <c r="B18" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -3541,6 +3788,7 @@
       <c r="D19" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -3555,7 +3803,7 @@
       <c r="D20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="29" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3569,6 +3817,7 @@
       <c r="D21" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -3583,52 +3832,68 @@
       <c r="D22" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="30" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E26" s="31" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E27" s="31" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3674,150 +3939,150 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
